--- a/MAP/map_level3.xlsx
+++ b/MAP/map_level3.xlsx
@@ -1053,8 +1053,8 @@
   <sheetPr/>
   <dimension ref="A1:EJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF10" workbookViewId="0">
-      <selection activeCell="ET35" sqref="ET35"/>
+    <sheetView tabSelected="1" topLeftCell="BA19" workbookViewId="0">
+      <selection activeCell="CR48" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.62857142857143" defaultRowHeight="15"/>
@@ -1063,14 +1063,14 @@
     <col min="4" max="4" width="2.62857142857143" style="1"/>
     <col min="5" max="5" width="3.57142857142857" style="1"/>
     <col min="6" max="6" width="3.62857142857143" style="1"/>
-    <col min="7" max="7" width="3.57142857142857" style="1"/>
-    <col min="8" max="15" width="2.62857142857143" style="1"/>
+    <col min="7" max="10" width="3.57142857142857" style="1"/>
+    <col min="11" max="15" width="2.62857142857143" style="1"/>
     <col min="16" max="16" width="3.62857142857143" style="1"/>
     <col min="17" max="17" width="2.62857142857143" style="1"/>
     <col min="18" max="19" width="3.57142857142857" style="1"/>
-    <col min="20" max="22" width="2.62857142857143" style="1"/>
-    <col min="23" max="23" width="3.57142857142857" style="1"/>
-    <col min="24" max="27" width="2.62857142857143" style="1"/>
+    <col min="20" max="21" width="2.62857142857143" style="1"/>
+    <col min="22" max="24" width="3.57142857142857" style="1"/>
+    <col min="25" max="27" width="2.62857142857143" style="1"/>
     <col min="28" max="37" width="3.57142857142857" style="1"/>
     <col min="38" max="38" width="3.62857142857143" style="1"/>
     <col min="39" max="43" width="3.57142857142857" style="1"/>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y18" s="1">
         <v>0</v>
@@ -8719,16 +8719,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -12299,37 +12299,37 @@
         <v>0</v>
       </c>
       <c r="BW27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BX27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BY27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BZ27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CA27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CB27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CC27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CD27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CE27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CF27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CG27" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CH27" s="1">
         <v>0</v>
@@ -13915,19 +13915,19 @@
         <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD31" s="1">
         <v>0</v>
@@ -14777,13 +14777,13 @@
         <v>0</v>
       </c>
       <c r="BE33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH33" s="1">
         <v>0</v>
@@ -15705,10 +15705,10 @@
         <v>7</v>
       </c>
       <c r="CG35" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CH35" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CI35" s="1">
         <v>7</v>
@@ -16115,10 +16115,10 @@
         <v>0</v>
       </c>
       <c r="CC36" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CD36" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CE36" s="1">
         <v>6</v>
@@ -16531,10 +16531,10 @@
         <v>14</v>
       </c>
       <c r="CA37" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CB37" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CC37" s="1">
         <v>0</v>
@@ -18117,7 +18117,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -18216,7 +18216,7 @@
         <v>0</v>
       </c>
       <c r="BZ41" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CA41" s="1">
         <v>0</v>
